--- a/arc/xls/arc_Libro3.xlsx
+++ b/arc/xls/arc_Libro3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvanrivera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191CACA-56DD-45DA-8DCD-DE396C7E1187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF294E-5B3A-4095-AA14-244C9D2B1CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="4215" windowWidth="15375" windowHeight="11385" xr2:uid="{40CB136D-6035-446A-9FC7-D8EE27C9D39D}"/>
+    <workbookView xWindow="525" yWindow="2070" windowWidth="9915" windowHeight="11385" xr2:uid="{40CB136D-6035-446A-9FC7-D8EE27C9D39D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -485,20 +485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24ADAD2-1A38-4CF4-B60E-6E9F884E1698}">
-  <dimension ref="B3:P8"/>
+  <dimension ref="B3:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -508,30 +508,27 @@
       <c r="D3" s="8">
         <v>356348781747939</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
       <c r="G3" s="1">
-        <v>128</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>11</v>
       </c>
-      <c r="L3" s="4">
+      <c r="I3" s="4">
         <v>54</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -541,30 +538,27 @@
       <c r="D4" s="8">
         <v>355302642896477</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>256</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
       <c r="G4" s="1">
-        <v>256</v>
-      </c>
-      <c r="H4" s="2">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>11</v>
       </c>
-      <c r="L4" s="4">
+      <c r="I4" s="4">
         <v>54</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -574,30 +568,27 @@
       <c r="D5" s="8">
         <v>867315061634329</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
       <c r="G5" s="1">
-        <v>128</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>11</v>
       </c>
-      <c r="L5" s="4">
+      <c r="I5" s="4">
         <v>54</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,30 +598,27 @@
       <c r="D6" s="8">
         <v>359321060055016</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>256</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
       <c r="G6" s="1">
-        <v>256</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>11</v>
       </c>
-      <c r="L6" s="4">
+      <c r="I6" s="4">
         <v>54</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:16" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,30 +628,27 @@
       <c r="D7" s="8">
         <v>359694274277208</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>128</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
       <c r="G7" s="1">
-        <v>128</v>
-      </c>
-      <c r="H7" s="2">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>11</v>
       </c>
-      <c r="L7" s="4">
+      <c r="I7" s="4">
         <v>54</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,27 +658,24 @@
       <c r="D8" s="8">
         <v>862800069243269</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>128</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16</v>
+      </c>
       <c r="G8" s="1">
-        <v>128</v>
-      </c>
-      <c r="H8" s="2">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>11</v>
       </c>
-      <c r="L8" s="4">
+      <c r="I8" s="4">
         <v>54</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
